--- a/data/trans_orig/P2A_senso_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2A_senso_R-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>15504</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8832</v>
+        <v>8668</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25164</v>
+        <v>24148</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02233955226633197</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01272588908959261</v>
+        <v>0.01248922363654982</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03625895329943898</v>
+        <v>0.03479411129205861</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -765,19 +765,19 @@
         <v>8208</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3282</v>
+        <v>3921</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15176</v>
+        <v>14790</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01192381299268725</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004767253153579351</v>
+        <v>0.005696485433047223</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02204666096396882</v>
+        <v>0.02148586755317578</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -786,19 +786,19 @@
         <v>23712</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16171</v>
+        <v>16156</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>34694</v>
+        <v>33478</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01715301006048798</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01169820526776459</v>
+        <v>0.0116871898836349</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02509785710210189</v>
+        <v>0.02421768123755018</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>678508</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>668848</v>
+        <v>669864</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>685180</v>
+        <v>685344</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.977660447733668</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9637410467005609</v>
+        <v>0.9652058887079413</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9872741109104073</v>
+        <v>0.9875107763634502</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>688</v>
@@ -836,19 +836,19 @@
         <v>680143</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>673175</v>
+        <v>673561</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>685069</v>
+        <v>684430</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9880761870073127</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9779533390360312</v>
+        <v>0.9785141324468242</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9952327468464206</v>
+        <v>0.9943035145669528</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1355</v>
@@ -857,19 +857,19 @@
         <v>1358651</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1347669</v>
+        <v>1348885</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1366192</v>
+        <v>1366207</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.982846989939512</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.974902142897898</v>
+        <v>0.9757823187624497</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9883017947322353</v>
+        <v>0.9883128101163648</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>14183</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7765</v>
+        <v>8163</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22926</v>
+        <v>23645</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01474627315768985</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008073725149779408</v>
+        <v>0.00848721632776174</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02383637257601873</v>
+        <v>0.02458376454711691</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -982,19 +982,19 @@
         <v>16585</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10151</v>
+        <v>10119</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26438</v>
+        <v>26114</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01712595862824675</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01048213261693345</v>
+        <v>0.01044941066688543</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02730138988472811</v>
+        <v>0.02696634048236693</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>29</v>
@@ -1003,19 +1003,19 @@
         <v>30768</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21394</v>
+        <v>21116</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>43440</v>
+        <v>44677</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0159401800957753</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01108408530258161</v>
+        <v>0.01093981719113727</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02250551119516421</v>
+        <v>0.02314627351281644</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>947617</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>938874</v>
+        <v>938155</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>954035</v>
+        <v>953637</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9852537268423102</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9761636274239816</v>
+        <v>0.9754162354528831</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9919262748502206</v>
+        <v>0.9915127836722383</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>892</v>
@@ -1053,19 +1053,19 @@
         <v>951808</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>941955</v>
+        <v>942279</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>958242</v>
+        <v>958274</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9828740413717533</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9726986101152717</v>
+        <v>0.973033659517633</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9895178673830665</v>
+        <v>0.9895505893331146</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1775</v>
@@ -1074,19 +1074,19 @@
         <v>1899425</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1886753</v>
+        <v>1885516</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1908799</v>
+        <v>1909077</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9840598199042248</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9774944888048358</v>
+        <v>0.9768537264871835</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9889159146974184</v>
+        <v>0.9890601828088627</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>7898</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3864</v>
+        <v>3607</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15813</v>
+        <v>16806</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01164036969226194</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005694269916858542</v>
+        <v>0.005315380861507193</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02330598695599752</v>
+        <v>0.02476868776155925</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1199,19 +1199,19 @@
         <v>10843</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6017</v>
+        <v>5821</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19164</v>
+        <v>18167</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01585585585492543</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00879816847893841</v>
+        <v>0.008512438784387153</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02802425663847407</v>
+        <v>0.02656649083072914</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -1220,19 +1220,19 @@
         <v>18741</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10674</v>
+        <v>11179</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28729</v>
+        <v>29771</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01375636229974097</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007834755127042195</v>
+        <v>0.008205884001843243</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02108753680093103</v>
+        <v>0.02185248496614916</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>670611</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>662696</v>
+        <v>661703</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>674645</v>
+        <v>674902</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9883596303077381</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9766940130440025</v>
+        <v>0.9752313122384408</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9943057300831416</v>
+        <v>0.9946846191384929</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>685</v>
@@ -1270,19 +1270,19 @@
         <v>672998</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>664677</v>
+        <v>665674</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>677824</v>
+        <v>678020</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9841441441450746</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9719757433615261</v>
+        <v>0.9734335091692707</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9912018315210617</v>
+        <v>0.9914875612156127</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1319</v>
@@ -1291,19 +1291,19 @@
         <v>1343609</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1333621</v>
+        <v>1332579</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1351676</v>
+        <v>1351171</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.986243637700259</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9789124631990689</v>
+        <v>0.9781475150338508</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9921652448729578</v>
+        <v>0.9917941159981567</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>13129</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7606</v>
+        <v>6724</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21826</v>
+        <v>22053</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01393414206912647</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008072053261474229</v>
+        <v>0.007135939171694126</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02316423005019899</v>
+        <v>0.02340513134782979</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -1416,19 +1416,19 @@
         <v>20383</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12887</v>
+        <v>12913</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30625</v>
+        <v>31314</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01962562092275288</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01240744723278641</v>
+        <v>0.01243304487471028</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02948660410849357</v>
+        <v>0.0301495508538985</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>33</v>
@@ -1437,19 +1437,19 @@
         <v>33512</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>23728</v>
+        <v>23121</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>47444</v>
+        <v>46412</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01691835879570786</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01197902627337733</v>
+        <v>0.01167248335043935</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02395147561985822</v>
+        <v>0.02343032979880623</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>929093</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>920396</v>
+        <v>920169</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>934616</v>
+        <v>935498</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9860658579308735</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9768357699498011</v>
+        <v>0.9765948686521703</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9919279467385259</v>
+        <v>0.9928640608283061</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>978</v>
@@ -1487,19 +1487,19 @@
         <v>1018229</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1007987</v>
+        <v>1007298</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1025725</v>
+        <v>1025699</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9803743790772471</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9705133958915066</v>
+        <v>0.9698504491461015</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9875925527672136</v>
+        <v>0.9875669551252898</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1958</v>
@@ -1508,19 +1508,19 @@
         <v>1947322</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1933390</v>
+        <v>1934422</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1957106</v>
+        <v>1957713</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9830816412042921</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9760485243801419</v>
+        <v>0.9765696702011938</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9880209737266228</v>
+        <v>0.9883275166495606</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>50714</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>37969</v>
+        <v>38186</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>66501</v>
+        <v>67842</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0154779089904101</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01158815509514749</v>
+        <v>0.01165436120412931</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02029598510543221</v>
+        <v>0.02070527561807825</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>54</v>
@@ -1633,19 +1633,19 @@
         <v>56019</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>43275</v>
+        <v>43180</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>72757</v>
+        <v>71752</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01657752320685429</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01280627484275531</v>
+        <v>0.01277823175217347</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02153072434883496</v>
+        <v>0.02123348667878827</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>104</v>
@@ -1654,19 +1654,19 @@
         <v>106733</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>87703</v>
+        <v>88075</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>130048</v>
+        <v>130146</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01603619598013469</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01317702365222394</v>
+        <v>0.0132329115412512</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01953924179082834</v>
+        <v>0.01955395868376882</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3225829</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3210042</v>
+        <v>3208701</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3238574</v>
+        <v>3238357</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9845220910095899</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9797040148945682</v>
+        <v>0.9792947243819218</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9884118449048527</v>
+        <v>0.9883456387958707</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3243</v>
@@ -1704,19 +1704,19 @@
         <v>3323178</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3306440</v>
+        <v>3307445</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3335922</v>
+        <v>3336017</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9834224767931458</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9784692756511651</v>
+        <v>0.9787665133212117</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9871937251572447</v>
+        <v>0.9872217682478264</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6407</v>
@@ -1725,19 +1725,19 @@
         <v>6549008</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6525693</v>
+        <v>6525595</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6568038</v>
+        <v>6567666</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9839638040198653</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9804607582091717</v>
+        <v>0.9804460413162313</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9868229763477762</v>
+        <v>0.9867670884587489</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>17782</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10582</v>
+        <v>10685</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27847</v>
+        <v>27628</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02527725369083254</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01504278187118303</v>
+        <v>0.01518872246818796</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03958575260957268</v>
+        <v>0.03927452257296002</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -2090,19 +2090,19 @@
         <v>17801</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10871</v>
+        <v>10827</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29395</v>
+        <v>28896</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02553823779285439</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01559564973309326</v>
+        <v>0.01553317007600089</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04217077263028214</v>
+        <v>0.04145419739006995</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -2111,19 +2111,19 @@
         <v>35583</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23852</v>
+        <v>24814</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>49253</v>
+        <v>48934</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02540714765940832</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0170310889081475</v>
+        <v>0.01771750411169906</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0351674891533117</v>
+        <v>0.03493982565560498</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>685687</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>675622</v>
+        <v>675841</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>692887</v>
+        <v>692784</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9747227463091674</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9604142473904278</v>
+        <v>0.9607254774270394</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9849572181288171</v>
+        <v>0.9848112775318115</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>634</v>
@@ -2161,19 +2161,19 @@
         <v>679249</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>667655</v>
+        <v>668154</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>686179</v>
+        <v>686223</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9744617622071456</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9578292273697177</v>
+        <v>0.9585458026099305</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9844043502669066</v>
+        <v>0.9844668299239991</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1291</v>
@@ -2182,19 +2182,19 @@
         <v>1364936</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1351266</v>
+        <v>1351585</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1376667</v>
+        <v>1375705</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9745928523405917</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9648325108466883</v>
+        <v>0.9650601743443955</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9829689110918528</v>
+        <v>0.9822824958883011</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>16457</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9066</v>
+        <v>9206</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26574</v>
+        <v>28625</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01616716699231208</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008906480723402312</v>
+        <v>0.009043557957440594</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02610549879622717</v>
+        <v>0.02812004768107243</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -2307,19 +2307,19 @@
         <v>20987</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12899</v>
+        <v>13263</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32976</v>
+        <v>32407</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02033279775654785</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01249697554248113</v>
+        <v>0.01284945796459983</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03194774612140854</v>
+        <v>0.03139637383232645</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>33</v>
@@ -2328,19 +2328,19 @@
         <v>37445</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26183</v>
+        <v>26673</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>51906</v>
+        <v>52597</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01826444622255829</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01277159180662309</v>
+        <v>0.01301045380959186</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02531845119046142</v>
+        <v>0.02565556992766156</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>1001490</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>991373</v>
+        <v>989322</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1008881</v>
+        <v>1008741</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9838328330076879</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9738945012037729</v>
+        <v>0.9718799523189277</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9910935192765975</v>
+        <v>0.9909564420425595</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>921</v>
@@ -2378,19 +2378,19 @@
         <v>1011197</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>999208</v>
+        <v>999777</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1019285</v>
+        <v>1018921</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9796672022434522</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9680522538785916</v>
+        <v>0.9686036261676744</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9875030244575191</v>
+        <v>0.9871505420354002</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1843</v>
@@ -2399,19 +2399,19 @@
         <v>2012686</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1998225</v>
+        <v>1997534</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2023948</v>
+        <v>2023458</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9817355537774417</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9746815488095386</v>
+        <v>0.9743444300723385</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9872284081933769</v>
+        <v>0.9869895461904081</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>8045</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3086</v>
+        <v>3832</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17120</v>
+        <v>17248</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01061824466370994</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004073743553088712</v>
+        <v>0.005058512544620457</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02259643541326858</v>
+        <v>0.02276634123478112</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -2524,19 +2524,19 @@
         <v>11532</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6040</v>
+        <v>5434</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21898</v>
+        <v>20504</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01483882865617913</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007771345039093566</v>
+        <v>0.006992140610125993</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02817585465436362</v>
+        <v>0.02638313186890847</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -2545,19 +2545,19 @@
         <v>19577</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12163</v>
+        <v>11813</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30425</v>
+        <v>31105</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01275541816944608</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007925041768253663</v>
+        <v>0.007696466728764381</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01982376639337198</v>
+        <v>0.02026627776910795</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>749578</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>740503</v>
+        <v>740375</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>754537</v>
+        <v>753791</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.98938175533629</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9774035645867315</v>
+        <v>0.9772336587652187</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9959262564469112</v>
+        <v>0.9949414874553796</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>695</v>
@@ -2595,19 +2595,19 @@
         <v>765642</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>755276</v>
+        <v>756670</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>771134</v>
+        <v>771740</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9851611713438209</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9718241453456361</v>
+        <v>0.9736168681310933</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9922286549609063</v>
+        <v>0.993007859389874</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1377</v>
@@ -2616,19 +2616,19 @@
         <v>1515220</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1504372</v>
+        <v>1503692</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1522634</v>
+        <v>1522984</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.987244581830554</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9801762336066281</v>
+        <v>0.9797337222308919</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9920749582317464</v>
+        <v>0.9923035332712351</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>15408</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8731</v>
+        <v>8629</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25691</v>
+        <v>25374</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01625781608902984</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009212578864279059</v>
+        <v>0.009105169622076617</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02710792920732983</v>
+        <v>0.02677318942045131</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -2741,19 +2741,19 @@
         <v>27577</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18899</v>
+        <v>17924</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41709</v>
+        <v>39715</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02621637381990028</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01796653674390523</v>
+        <v>0.01704004013639589</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03965117779259437</v>
+        <v>0.03775559470428747</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>40</v>
@@ -2762,19 +2762,19 @@
         <v>42985</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31434</v>
+        <v>30452</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>58486</v>
+        <v>57292</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02149646650917298</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01571991448132279</v>
+        <v>0.01522894521423383</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0292482749494334</v>
+        <v>0.02865111564939428</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>932331</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>922048</v>
+        <v>922365</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>939008</v>
+        <v>939110</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9837421839109701</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9728920707926697</v>
+        <v>0.9732268105795486</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9907874211357208</v>
+        <v>0.9908948303779233</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>977</v>
@@ -2812,19 +2812,19 @@
         <v>1024324</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1010192</v>
+        <v>1012186</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1033002</v>
+        <v>1033977</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9737836261800997</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9603488222074059</v>
+        <v>0.9622444052957131</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9820334632560948</v>
+        <v>0.9829599598636052</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1873</v>
@@ -2833,19 +2833,19 @@
         <v>1956655</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1941154</v>
+        <v>1942348</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1968206</v>
+        <v>1969188</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.978503533490827</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9707517250505666</v>
+        <v>0.9713488843506057</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9842800855186772</v>
+        <v>0.9847710547857662</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>57692</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>43081</v>
+        <v>42723</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>74954</v>
+        <v>74190</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01683560297391015</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0125718933395672</v>
+        <v>0.01246725238067391</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02187300770635209</v>
+        <v>0.02165003313676651</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>71</v>
@@ -2958,19 +2958,19 @@
         <v>77898</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>61021</v>
+        <v>60992</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>97802</v>
+        <v>96095</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02189185900668097</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01714892008005007</v>
+        <v>0.01714078227121765</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02748566565721942</v>
+        <v>0.02700577716035648</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>123</v>
@@ -2979,19 +2979,19 @@
         <v>135590</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>111119</v>
+        <v>111703</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>157691</v>
+        <v>160544</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01941133601082412</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01590796817744232</v>
+        <v>0.01599169309993089</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02257536967603089</v>
+        <v>0.02298382892787317</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3369087</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3351825</v>
+        <v>3352589</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3383698</v>
+        <v>3384056</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9831643970260898</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9781269922936482</v>
+        <v>0.9783499668632335</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9874281066604328</v>
+        <v>0.9875327476193262</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3227</v>
@@ -3029,19 +3029,19 @@
         <v>3480411</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3460507</v>
+        <v>3462214</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3497288</v>
+        <v>3497317</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.978108140993319</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9725143343427808</v>
+        <v>0.9729942228396435</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9828510799199501</v>
+        <v>0.9828592177287824</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6384</v>
@@ -3050,19 +3050,19 @@
         <v>6849498</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6827397</v>
+        <v>6824544</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6873969</v>
+        <v>6873385</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9805886639891759</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9774246303239692</v>
+        <v>0.9770161710721269</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9840920318225579</v>
+        <v>0.9840083069000691</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>5859</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2065</v>
+        <v>2072</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12188</v>
+        <v>12789</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008682656348912434</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003059722715343027</v>
+        <v>0.003070040055338525</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01806224184415683</v>
+        <v>0.01895290963867863</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -3415,19 +3415,19 @@
         <v>6850</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2848</v>
+        <v>2650</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14856</v>
+        <v>13260</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0101807447834287</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004233293501432997</v>
+        <v>0.003938962881484074</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02207971133697969</v>
+        <v>0.01970802573959653</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -3436,19 +3436,19 @@
         <v>12709</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6667</v>
+        <v>7021</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21029</v>
+        <v>20462</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.009430610602781593</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004947297656877348</v>
+        <v>0.005210043452943154</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01560439315283089</v>
+        <v>0.01518392851563711</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>668941</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>662612</v>
+        <v>662011</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>672735</v>
+        <v>672728</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9913173436510876</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9819377581558429</v>
+        <v>0.9810470903613212</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.996940277284657</v>
+        <v>0.9969299599446615</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>659</v>
@@ -3486,19 +3486,19 @@
         <v>665989</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>657983</v>
+        <v>659579</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>669991</v>
+        <v>670189</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9898192552165713</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9779202886630205</v>
+        <v>0.9802919742604037</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.995766706498567</v>
+        <v>0.9960610371185159</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1305</v>
@@ -3507,19 +3507,19 @@
         <v>1334930</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1326610</v>
+        <v>1327177</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1340972</v>
+        <v>1340618</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9905693893972184</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9843956068471691</v>
+        <v>0.9848160714843628</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9950527023431226</v>
+        <v>0.9947899565470568</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>9614</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4418</v>
+        <v>3990</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17824</v>
+        <v>18471</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009402932651496238</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004320962237513288</v>
+        <v>0.003902272950948685</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0174334045828058</v>
+        <v>0.01806606812400644</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -3632,19 +3632,19 @@
         <v>12840</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6995</v>
+        <v>6676</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23347</v>
+        <v>23155</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01231191471321691</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006707186381059329</v>
+        <v>0.006401051327725202</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02238671738659925</v>
+        <v>0.02220230730560649</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -3653,19 +3653,19 @@
         <v>22454</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13556</v>
+        <v>13093</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>33964</v>
+        <v>33267</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01087184786553728</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006563554878030736</v>
+        <v>0.006339490200048344</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01644475814200651</v>
+        <v>0.01610746572517619</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>1012817</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1004607</v>
+        <v>1003960</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1018013</v>
+        <v>1018441</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9905970673485037</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9825665954171942</v>
+        <v>0.9819339318759935</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9956790377624868</v>
+        <v>0.9960977270490513</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>966</v>
@@ -3703,19 +3703,19 @@
         <v>1030073</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1019566</v>
+        <v>1019758</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1035918</v>
+        <v>1036237</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9876880852867831</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9776132826134007</v>
+        <v>0.9777976926943934</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9932928136189406</v>
+        <v>0.9935989486722748</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1909</v>
@@ -3724,19 +3724,19 @@
         <v>2042890</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2031380</v>
+        <v>2032077</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2051788</v>
+        <v>2052251</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9891281521344627</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9835552418579938</v>
+        <v>0.9838925342748238</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9934364451219695</v>
+        <v>0.9936605097999517</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>7047</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2645</v>
+        <v>2415</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17301</v>
+        <v>15547</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009277821123879039</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003482077552208253</v>
+        <v>0.003179062773482196</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02277756700120235</v>
+        <v>0.02046820568477308</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -3849,19 +3849,19 @@
         <v>6661</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2254</v>
+        <v>2536</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13141</v>
+        <v>14548</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008485118145485297</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002870664925073247</v>
+        <v>0.003230575143243556</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01674011076822934</v>
+        <v>0.01853250187898581</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -3870,19 +3870,19 @@
         <v>13708</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7333</v>
+        <v>6784</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23863</v>
+        <v>22991</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008874936676367844</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004747402526809981</v>
+        <v>0.004392307369592646</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01544981799839471</v>
+        <v>0.01488523621613736</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>752505</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>742251</v>
+        <v>744005</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>756907</v>
+        <v>757137</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9907221788761209</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9772224329987977</v>
+        <v>0.9795317943152269</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9965179224477917</v>
+        <v>0.9968209372265178</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>730</v>
@@ -3920,19 +3920,19 @@
         <v>778350</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>771870</v>
+        <v>770463</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>782757</v>
+        <v>782475</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9915148818545148</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9832598892317705</v>
+        <v>0.9814674981210142</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9971293350749267</v>
+        <v>0.9967694248567565</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1421</v>
@@ -3941,19 +3941,19 @@
         <v>1530855</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1520700</v>
+        <v>1521572</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1537230</v>
+        <v>1537779</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9911250633236321</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9845501820016053</v>
+        <v>0.9851147637838626</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9952525974731901</v>
+        <v>0.9956076926304074</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>11932</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5994</v>
+        <v>6152</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21332</v>
+        <v>21219</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01272669144056611</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006393624630109792</v>
+        <v>0.006561192340747354</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02275298835963276</v>
+        <v>0.02263223455537367</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -4066,19 +4066,19 @@
         <v>11371</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5951</v>
+        <v>5654</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19463</v>
+        <v>19858</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01089364558858262</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005701332251711537</v>
+        <v>0.00541703713698146</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01864623510356722</v>
+        <v>0.01902494140733793</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>22</v>
@@ -4087,19 +4087,19 @@
         <v>23303</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14559</v>
+        <v>14788</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>33630</v>
+        <v>34953</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01176103739620788</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007348094855748594</v>
+        <v>0.007463520886803526</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01697321254314761</v>
+        <v>0.01764115591731185</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>925635</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>916235</v>
+        <v>916348</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>931573</v>
+        <v>931415</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9872733085594338</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9772470116403674</v>
+        <v>0.9773677654446258</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9936063753698903</v>
+        <v>0.9934388076592526</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>948</v>
@@ -4137,19 +4137,19 @@
         <v>1032408</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1024316</v>
+        <v>1023921</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1037828</v>
+        <v>1038125</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9891063544114174</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9813537648964329</v>
+        <v>0.980975058592662</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9942986677482886</v>
+        <v>0.9945829628630184</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1869</v>
@@ -4158,19 +4158,19 @@
         <v>1958043</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1947716</v>
+        <v>1946393</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1966787</v>
+        <v>1966558</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9882389626037921</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9830267874568525</v>
+        <v>0.9823588440826883</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9926519051442514</v>
+        <v>0.9925364791131965</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>34452</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23754</v>
+        <v>23513</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>50363</v>
+        <v>46996</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01014981351233429</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006997990975262458</v>
+        <v>0.00692705366627222</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01483742541476609</v>
+        <v>0.01384535907345087</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>35</v>
@@ -4283,19 +4283,19 @@
         <v>37722</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>25996</v>
+        <v>26634</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>51595</v>
+        <v>52318</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01064220077667661</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007334009598550106</v>
+        <v>0.007514045091118662</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01455612697937936</v>
+        <v>0.01476010044607623</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>65</v>
@@ -4304,19 +4304,19 @@
         <v>72174</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>56262</v>
+        <v>57494</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>93267</v>
+        <v>92270</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0104013359819414</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008108270407287193</v>
+        <v>0.008285745208464814</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01344116120552604</v>
+        <v>0.01329757760866854</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3359898</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3343987</v>
+        <v>3347354</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3370596</v>
+        <v>3370837</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9898501864876658</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9851625745852339</v>
+        <v>0.9861546409265493</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9930020090247378</v>
+        <v>0.9930729463337278</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3303</v>
@@ -4354,19 +4354,19 @@
         <v>3506820</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3492947</v>
+        <v>3492224</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3518546</v>
+        <v>3517908</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9893577992233233</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9854438730206208</v>
+        <v>0.9852398995539238</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.99266599040145</v>
+        <v>0.9924859549088814</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6504</v>
@@ -4375,19 +4375,19 @@
         <v>6866718</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6845625</v>
+        <v>6846622</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6882630</v>
+        <v>6881398</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9895986640180586</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9865588387944739</v>
+        <v>0.9867024223913314</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9918917295927128</v>
+        <v>0.9917142547915352</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>14150</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7736</v>
+        <v>8078</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23274</v>
+        <v>23305</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02048591437315839</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01119966231141581</v>
+        <v>0.01169587133908397</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03369514705126275</v>
+        <v>0.03374027728472877</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -4740,19 +4740,19 @@
         <v>18939</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12472</v>
+        <v>13038</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30627</v>
+        <v>30753</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.0257963227025934</v>
+        <v>0.02579632270259339</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01698752820543047</v>
+        <v>0.01775875530969957</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0417157781599727</v>
+        <v>0.04188733011985825</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>47</v>
@@ -4761,19 +4761,19 @@
         <v>33089</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23015</v>
+        <v>24060</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>45313</v>
+        <v>46543</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02322212298753109</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01615207138399103</v>
+        <v>0.0168856204643681</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03180097904088774</v>
+        <v>0.03266425181412393</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>676560</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>667436</v>
+        <v>667405</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>682974</v>
+        <v>682632</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9795140856268415</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9663048529487372</v>
+        <v>0.9662597227152711</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9888003376885843</v>
+        <v>0.9883041286609157</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1210</v>
@@ -4811,19 +4811,19 @@
         <v>715241</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>703553</v>
+        <v>703427</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>721708</v>
+        <v>721142</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9742036772974064</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9582842218400279</v>
+        <v>0.9581126698801419</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9830124717945696</v>
+        <v>0.9822412446903004</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1924</v>
@@ -4832,19 +4832,19 @@
         <v>1391800</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1379576</v>
+        <v>1378346</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1401874</v>
+        <v>1400829</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9767778770124689</v>
+        <v>0.9767778770124691</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9681990209591123</v>
+        <v>0.9673357481858762</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.983847928616009</v>
+        <v>0.983114379535632</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>24830</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15403</v>
+        <v>15111</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40767</v>
+        <v>38827</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02367190109424912</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01468483395366605</v>
+        <v>0.01440598381967217</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03886552678200007</v>
+        <v>0.03701604806000258</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>53</v>
@@ -4957,19 +4957,19 @@
         <v>33112</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25441</v>
+        <v>25600</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>43145</v>
+        <v>43010</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03090331103618896</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02374430007833685</v>
+        <v>0.02389226126290099</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04026737270505289</v>
+        <v>0.04014087461774225</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>74</v>
@@ -4978,19 +4978,19 @@
         <v>57942</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>46328</v>
+        <v>44359</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>76569</v>
+        <v>73551</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02732607067399707</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02184874742837955</v>
+        <v>0.02092040064117757</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03611070884705116</v>
+        <v>0.03468728591867717</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>1024087</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1008150</v>
+        <v>1010090</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1033514</v>
+        <v>1033806</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.976328098905751</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9611344732180001</v>
+        <v>0.9629839519399974</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.985315166046334</v>
+        <v>0.9855940161803276</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1464</v>
@@ -5028,19 +5028,19 @@
         <v>1038362</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1028329</v>
+        <v>1028464</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1046033</v>
+        <v>1045874</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9690966889638111</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9597326272949469</v>
+        <v>0.9598591253822579</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9762556999216631</v>
+        <v>0.9761077387370992</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2407</v>
@@ -5049,19 +5049,19 @@
         <v>2062449</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2043822</v>
+        <v>2046840</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2074063</v>
+        <v>2076032</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9726739293260029</v>
+        <v>0.9726739293260027</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9638892911529491</v>
+        <v>0.965312714081324</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9781512525716204</v>
+        <v>0.9790795993588222</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>32206</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21473</v>
+        <v>21080</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45082</v>
+        <v>45240</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04010308498845783</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02673876371387104</v>
+        <v>0.02624971631019136</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05613648350933731</v>
+        <v>0.05633361024798035</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>52</v>
@@ -5174,19 +5174,19 @@
         <v>38711</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28450</v>
+        <v>28439</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52456</v>
+        <v>52193</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04765825525276155</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03502568739772922</v>
+        <v>0.03501206866729682</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06458056043858468</v>
+        <v>0.06425660953185097</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>82</v>
@@ -5195,19 +5195,19 @@
         <v>70917</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>56297</v>
+        <v>57861</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>88565</v>
+        <v>90992</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04390215161275683</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03485186185774332</v>
+        <v>0.03582003224048516</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05482771565007342</v>
+        <v>0.05633030772947207</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>770867</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>757991</v>
+        <v>757833</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>781600</v>
+        <v>781993</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9598969150115422</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9438635164906627</v>
+        <v>0.9436663897520202</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9732612362861289</v>
+        <v>0.9737502836898086</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>995</v>
@@ -5245,19 +5245,19 @@
         <v>773548</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>759803</v>
+        <v>760066</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>783809</v>
+        <v>783820</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9523417447472383</v>
+        <v>0.9523417447472385</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9354194395614153</v>
+        <v>0.9357433904681491</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9649743126022707</v>
+        <v>0.9649879313327031</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1641</v>
@@ -5266,19 +5266,19 @@
         <v>1544415</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1526767</v>
+        <v>1524340</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1559035</v>
+        <v>1557471</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9560978483872431</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9451722843499276</v>
+        <v>0.9436696922705279</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9651481381422569</v>
+        <v>0.9641799677595145</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>16819</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10417</v>
+        <v>10532</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26587</v>
+        <v>26685</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01698794026534637</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01052203169055743</v>
+        <v>0.01063809651828823</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0268541695592801</v>
+        <v>0.02695241729824133</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>46</v>
@@ -5391,19 +5391,19 @@
         <v>29923</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21481</v>
+        <v>22211</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>38792</v>
+        <v>39976</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02674021244467945</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01919611813169162</v>
+        <v>0.01984823040124445</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03466544729454052</v>
+        <v>0.03572319955995547</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>65</v>
@@ -5412,19 +5412,19 @@
         <v>46743</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>36838</v>
+        <v>36118</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>59630</v>
+        <v>59682</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02216226935473349</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01746596043976583</v>
+        <v>0.01712483273236063</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0282728530729989</v>
+        <v>0.028297312022859</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>973243</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>963475</v>
+        <v>963377</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>979645</v>
+        <v>979530</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9830120597346537</v>
+        <v>0.9830120597346536</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9731458304407199</v>
+        <v>0.9730475827017587</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9894779683094426</v>
+        <v>0.9893619034817119</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1516</v>
@@ -5462,19 +5462,19 @@
         <v>1089118</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1080249</v>
+        <v>1079065</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1097560</v>
+        <v>1096830</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9732597875553206</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9653345527054595</v>
+        <v>0.9642768004400445</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9808038818683085</v>
+        <v>0.9801517695987556</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2503</v>
@@ -5483,19 +5483,19 @@
         <v>2062361</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2049474</v>
+        <v>2049422</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2072266</v>
+        <v>2072986</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9778377306452666</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.971727146927001</v>
+        <v>0.971702687977141</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9825340395602342</v>
+        <v>0.9828751672676395</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>88005</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>69604</v>
+        <v>70157</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>108360</v>
+        <v>108918</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02491096301966643</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01970235592698141</v>
+        <v>0.01985882504106729</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03067287424342505</v>
+        <v>0.03083081296748346</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>182</v>
@@ -5608,19 +5608,19 @@
         <v>120685</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>102202</v>
+        <v>103520</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>139379</v>
+        <v>142315</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0322951453435766</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02734904724586738</v>
+        <v>0.02770159604796114</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03729762010274063</v>
+        <v>0.03808307080016007</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>268</v>
@@ -5629,19 +5629,19 @@
         <v>208690</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>183553</v>
+        <v>183404</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>238189</v>
+        <v>237132</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02870675787825546</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02524895842692105</v>
+        <v>0.02522849162191677</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03276450335864829</v>
+        <v>0.03261909199049699</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3444757</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3424402</v>
+        <v>3423844</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3463158</v>
+        <v>3462605</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9750890369803338</v>
+        <v>0.9750890369803336</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9693271257565752</v>
+        <v>0.9691691870325166</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9802976440730187</v>
+        <v>0.9801411749589329</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5185</v>
@@ -5679,19 +5679,19 @@
         <v>3616269</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3597575</v>
+        <v>3594639</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3634752</v>
+        <v>3633434</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9677048546564235</v>
+        <v>0.9677048546564233</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9627023798972592</v>
+        <v>0.96191692919984</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9726509527541323</v>
+        <v>0.9722984039520387</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8475</v>
@@ -5700,19 +5700,19 @@
         <v>7061026</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7031527</v>
+        <v>7032584</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7086163</v>
+        <v>7086312</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9712932421217446</v>
+        <v>0.9712932421217445</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9672354966413519</v>
+        <v>0.9673809080095029</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9747510415730789</v>
+        <v>0.9747715083780835</v>
       </c>
     </row>
     <row r="18">
